--- a/data/input_excel/DBLP_toxic_language_detection.xlsx
+++ b/data/input_excel/DBLP_toxic_language_detection.xlsx
@@ -375,26 +375,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <cols>
     <col min="1" max="1" width="16.83203125" customWidth="1"/>
-    <col min="2" max="2" width="72.83203125" customWidth="1"/>
-    <col min="3" max="3" width="58.83203125" customWidth="1"/>
+    <col min="2" max="2" width="89.83203125" customWidth="1"/>
+    <col min="3" max="3" width="66.83203125" customWidth="1"/>
     <col min="4" max="4" width="139.83203125" customWidth="1"/>
-    <col min="5" max="5" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="27.83203125" customWidth="1"/>
     <col min="6" max="6" width="16.83203125" customWidth="1"/>
     <col min="7" max="7" width="14.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" customWidth="1"/>
-    <col min="9" max="9" width="41.83203125" customWidth="1"/>
-    <col min="10" max="10" width="284.83203125" customWidth="1"/>
-    <col min="11" max="11" width="14.83203125" customWidth="1"/>
-    <col min="12" max="12" width="103.83203125" customWidth="1"/>
-    <col min="13" max="13" width="34.83203125" customWidth="1"/>
-    <col min="14" max="14" width="33.83203125" customWidth="1"/>
-    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="8" max="8" width="5.83203125" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" customWidth="1"/>
+    <col min="10" max="10" width="41.83203125" customWidth="1"/>
+    <col min="11" max="11" width="284.83203125" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
+    <col min="13" max="13" width="103.83203125" customWidth="1"/>
+    <col min="14" max="14" width="34.83203125" customWidth="1"/>
+    <col min="15" max="15" width="33.83203125" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -420,121 +421,130 @@
         <v>Volume</v>
       </c>
       <c r="H1" t="str">
+        <v>Issue</v>
+      </c>
+      <c r="I1" t="str">
         <v>Pages</v>
       </c>
-      <c r="I1" t="str">
+      <c r="J1" t="str">
         <v>Publisher</v>
       </c>
-      <c r="J1" t="str">
+      <c r="K1" t="str">
         <v>Proceedings title</v>
       </c>
-      <c r="K1" t="str">
+      <c r="L1" t="str">
         <v>Date published</v>
       </c>
-      <c r="L1" t="str">
+      <c r="M1" t="str">
         <v>URLs</v>
       </c>
-      <c r="M1" t="str">
+      <c r="N1" t="str">
         <v>DOI</v>
       </c>
-      <c r="N1" t="str">
+      <c r="O1" t="str">
         <v>Series</v>
       </c>
-      <c r="O1" t="str">
+      <c r="P1" t="str">
         <v>Eprint ID</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B2" t="str">
-        <v>Jia Y,Wu W,Cao F,Han SC</v>
+        <v>Bensalem I,Rosso P,Zitouni H</v>
       </c>
       <c r="C2" t="str">
-        <v>Williams B,Chen Y,Neville J</v>
+        <v/>
       </c>
       <c r="D2" t="str">
-        <v>In-Game Toxic Language Detection: Shared Task and Attention Residuals (Student Abstract)</v>
+        <v>Toxic language detection: A systematic review of Arabic datasets</v>
       </c>
       <c r="E2" t="str">
-        <v/>
+        <v>Expert Syst. J. Knowl. Eng.</v>
       </c>
       <c r="F2" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G2" t="str">
-        <v/>
+        <v>41</v>
       </c>
       <c r="H2" t="str">
-        <v>16238-16239</v>
+        <v>8</v>
       </c>
       <c r="I2" t="str">
-        <v>AAAI Press</v>
+        <v/>
       </c>
       <c r="J2" t="str">
-        <v>Thirty-Seventh AAAI Conference on Artificial Intelligence, AAAI 2023, Thirty-Fifth Conference on Innovative Applications of Artificial Intelligence, IAAI 2023, Thirteenth Symposium on Educational Advances in Artificial Intelligence, EAAI 2023, Washington, DC, USA, February 7-14, 2023</v>
+        <v/>
       </c>
       <c r="K2" t="str">
-        <v>2023</v>
+        <v/>
       </c>
       <c r="L2" t="str">
-        <v>https://doi.org/10.1609/aaai.v37i13.26979;http://dx.doi.org/10.1609/AAAI.V37I13.26979</v>
+        <v>2024</v>
       </c>
       <c r="M2" t="str">
-        <v>10.1609/AAAI.V37I13.26979</v>
+        <v>https://doi.org/10.1111/exsy.13551;http://dx.doi.org/10.1111/EXSY.13551</v>
       </c>
       <c r="N2" t="str">
-        <v/>
+        <v>10.1111/EXSY.13551</v>
       </c>
       <c r="O2" t="str">
+        <v/>
+      </c>
+      <c r="P2" t="str">
         <v/>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B3" t="str">
-        <v>Lu J,Xu B,Zhang X,Min C,Yang L,Lin H</v>
+        <v>Shahid M,Umair M,Iqbal MA,Rashid M,Akram S,Zubair M</v>
       </c>
       <c r="C3" t="str">
-        <v>Rogers A,Boyd-Graber JL,Okazaki N</v>
+        <v/>
       </c>
       <c r="D3" t="str">
-        <v>Facilitating Fine-grained Detection of Chinese Toxic Language: Hierarchical Taxonomy, Resources, and Benchmarks</v>
+        <v>Leveraging deep learning for toxic comment detection in cursive languages</v>
       </c>
       <c r="E3" t="str">
-        <v/>
+        <v>PeerJ Comput. Sci.</v>
       </c>
       <c r="F3" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G3" t="str">
-        <v/>
+        <v>10</v>
       </c>
       <c r="H3" t="str">
-        <v>16235-16250</v>
+        <v/>
       </c>
       <c r="I3" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>e2486</v>
       </c>
       <c r="J3" t="str">
-        <v>Proceedings of the 61st Annual Meeting of the Association for Computational Linguistics (Volume 1: Long Papers), ACL 2023, Toronto, Canada, July 9-14, 2023</v>
+        <v/>
       </c>
       <c r="K3" t="str">
-        <v>2023</v>
+        <v/>
       </c>
       <c r="L3" t="str">
-        <v>https://doi.org/10.18653/v1/2023.acl-long.898;http://dx.doi.org/10.18653/V1/2023.ACL-LONG.898</v>
+        <v>2024</v>
       </c>
       <c r="M3" t="str">
-        <v>10.18653/V1/2023.ACL-LONG.898</v>
+        <v>https://doi.org/10.7717/peerj-cs.2486;http://dx.doi.org/10.7717/PEERJ-CS.2486</v>
       </c>
       <c r="N3" t="str">
-        <v/>
+        <v>10.7717/PEERJ-CS.2486</v>
       </c>
       <c r="O3" t="str">
+        <v/>
+      </c>
+      <c r="P3" t="str">
         <v/>
       </c>
     </row>
@@ -543,192 +553,204 @@
         <v>Conference Paper</v>
       </c>
       <c r="B4" t="str">
-        <v>de Paula AF,Rosso P,Spina D</v>
+        <v>Zhang J,Wu Q,Xu Y,Cao C,Du Z,Psounis K</v>
       </c>
       <c r="C4" t="str">
-        <v/>
+        <v>Wooldridge MJ,Dy JG,Natarajan S</v>
       </c>
       <c r="D4" t="str">
-        <v>Mitigating Negative Transfer with Task Awareness for Sexism, Hate Speech, and Toxic Language Detection</v>
+        <v>Efficient Toxic Content Detection by Bootstrapping and Distilling Large Language Models</v>
       </c>
       <c r="E4" t="str">
         <v/>
       </c>
       <c r="F4" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G4" t="str">
         <v/>
       </c>
       <c r="H4" t="str">
-        <v>1-8</v>
+        <v/>
       </c>
       <c r="I4" t="str">
-        <v>IEEE</v>
+        <v>21779-21787</v>
       </c>
       <c r="J4" t="str">
-        <v>International Joint Conference on Neural Networks, IJCNN 2023, Gold Coast, Australia, June 18-23, 2023</v>
+        <v>AAAI Press</v>
       </c>
       <c r="K4" t="str">
-        <v>2023</v>
+        <v>Thirty-Eighth AAAI Conference on Artificial Intelligence, AAAI 2024, Thirty-Sixth Conference on Innovative Applications of Artificial Intelligence, IAAI 2024, Fourteenth Symposium on Educational Advances in Artificial Intelligence, EAAI 2014, February 20-27, 2024, Vancouver, Canada</v>
       </c>
       <c r="L4" t="str">
-        <v>https://doi.org/10.1109/IJCNN54540.2023.10191347;http://dx.doi.org/10.1109/IJCNN54540.2023.10191347</v>
+        <v>2024</v>
       </c>
       <c r="M4" t="str">
-        <v>10.1109/IJCNN54540.2023.10191347</v>
+        <v>https://doi.org/10.1609/aaai.v38i19.30178;http://dx.doi.org/10.1609/AAAI.V38I19.30178</v>
       </c>
       <c r="N4" t="str">
-        <v/>
+        <v>10.1609/AAAI.V38I19.30178</v>
       </c>
       <c r="O4" t="str">
+        <v/>
+      </c>
+      <c r="P4" t="str">
         <v/>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B5" t="str">
-        <v>Nada AH,Latif S,Qadir J</v>
+        <v>Lu J,Xu B,Zhang X,Liu K,Zhang D,Yang L,Lin H</v>
       </c>
       <c r="C5" t="str">
-        <v/>
+        <v>Calzolari N,Kan MY,Hoste V,Lenci A,Sakti S,Xue N</v>
       </c>
       <c r="D5" t="str">
-        <v>Lightweight Toxicity Detection in Spoken Language: A Transformer-based Approach for Edge Devices</v>
+        <v>Take Its Essence, Discard Its Dross! Debiasing for Toxic Language Detection via Counterfactual Causal Effect</v>
       </c>
       <c r="E5" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F5" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G5" t="str">
-        <v>abs/2304.11408</v>
+        <v/>
       </c>
       <c r="H5" t="str">
         <v/>
       </c>
       <c r="I5" t="str">
-        <v/>
+        <v>15566-15578</v>
       </c>
       <c r="J5" t="str">
-        <v/>
+        <v>ELRA and ICCL</v>
       </c>
       <c r="K5" t="str">
-        <v>2023</v>
+        <v>Proceedings of the 2024 Joint International Conference on Computational Linguistics, Language Resources and Evaluation, LREC/COLING 2024, 20-25 May, 2024, Torino, Italy</v>
       </c>
       <c r="L5" t="str">
-        <v>https://doi.org/10.48550/arXiv.2304.11408;http://dx.doi.org/10.48550/ARXIV.2304.11408</v>
+        <v>2024</v>
       </c>
       <c r="M5" t="str">
-        <v>10.48550/ARXIV.2304.11408</v>
+        <v>https://aclanthology.org/2024.lrec-main.1353</v>
       </c>
       <c r="N5" t="str">
         <v/>
       </c>
       <c r="O5" t="str">
-        <v>2304.11408</v>
+        <v/>
+      </c>
+      <c r="P5" t="str">
+        <v/>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B6" t="str">
-        <v>Lu J,Xu B,Zhang X,Min C,Yang L,Lin H</v>
+        <v>Pavlopoulos J,Likas A</v>
       </c>
       <c r="C6" t="str">
-        <v/>
+        <v>Graham Y,Purver M</v>
       </c>
       <c r="D6" t="str">
-        <v>Facilitating Fine-grained Detection of Chinese Toxic Language: Hierarchical Taxonomy, Resources, and Benchmarks</v>
+        <v>Polarized Opinion Detection Improves the Detection of Toxic Language</v>
       </c>
       <c r="E6" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F6" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G6" t="str">
-        <v>abs/2305.04446</v>
+        <v/>
       </c>
       <c r="H6" t="str">
         <v/>
       </c>
       <c r="I6" t="str">
-        <v/>
+        <v>1946-1958</v>
       </c>
       <c r="J6" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K6" t="str">
-        <v>2023</v>
+        <v>Proceedings of the 18th Conference of the European Chapter of the Association for Computational Linguistics, EACL 2024 - Volume 1: Long Papers, St. Julian's, Malta, March 17-22, 2024</v>
       </c>
       <c r="L6" t="str">
-        <v>https://doi.org/10.48550/arXiv.2305.04446;http://dx.doi.org/10.48550/ARXIV.2305.04446</v>
+        <v>2024</v>
       </c>
       <c r="M6" t="str">
-        <v>10.48550/ARXIV.2305.04446</v>
+        <v>https://aclanthology.org/2024.eacl-long.117</v>
       </c>
       <c r="N6" t="str">
         <v/>
       </c>
       <c r="O6" t="str">
-        <v>2305.04446</v>
+        <v/>
+      </c>
+      <c r="P6" t="str">
+        <v/>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B7" t="str">
-        <v>de Paula AF,Rosso P,Spina D</v>
+        <v>Xiao Y,Hu Y,Choo KT,Lee RK</v>
       </c>
       <c r="C7" t="str">
-        <v/>
+        <v>Al-Onaizan Y,Bansal M,Chen YN</v>
       </c>
       <c r="D7" t="str">
-        <v>Mitigating Negative Transfer with Task Awareness for Sexism, Hate Speech, and Toxic Language Detection</v>
+        <v>ToxiCloakCN: Evaluating Robustness of Offensive Language Detection in Chinese with Cloaking Perturbations</v>
       </c>
       <c r="E7" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F7" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G7" t="str">
-        <v>abs/2307.03377</v>
+        <v/>
       </c>
       <c r="H7" t="str">
         <v/>
       </c>
       <c r="I7" t="str">
-        <v/>
+        <v>6012-6025</v>
       </c>
       <c r="J7" t="str">
-        <v/>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K7" t="str">
-        <v>2023</v>
+        <v>Proceedings of the 2024 Conference on Empirical Methods in Natural Language Processing, EMNLP 2024, Miami, FL, USA, November 12-16, 2024</v>
       </c>
       <c r="L7" t="str">
-        <v>https://doi.org/10.48550/arXiv.2307.03377;http://dx.doi.org/10.48550/ARXIV.2307.03377</v>
+        <v>2024</v>
       </c>
       <c r="M7" t="str">
-        <v>10.48550/ARXIV.2307.03377</v>
+        <v>https://aclanthology.org/2024.emnlp-main.345</v>
       </c>
       <c r="N7" t="str">
         <v/>
       </c>
       <c r="O7" t="str">
-        <v>2307.03377</v>
+        <v/>
+      </c>
+      <c r="P7" t="str">
+        <v/>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>Journal Article</v>
+        <v>Conference Paper</v>
       </c>
       <c r="B8" t="str">
         <v>Balestriero R,Cosentino R,Shekkizhar S</v>
@@ -737,16 +759,16 @@
         <v/>
       </c>
       <c r="D8" t="str">
-        <v>Characterizing Large Language Model Geometry Solves Toxicity Detection and Generation</v>
+        <v>Characterizing Large Language Model Geometry Helps Solve Toxicity Detection and Generation</v>
       </c>
       <c r="E8" t="str">
-        <v>CoRR</v>
+        <v/>
       </c>
       <c r="F8" t="str">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="G8" t="str">
-        <v>abs/2312.01648</v>
+        <v/>
       </c>
       <c r="H8" t="str">
         <v/>
@@ -755,22 +777,25 @@
         <v/>
       </c>
       <c r="J8" t="str">
-        <v/>
+        <v>OpenReview.net</v>
       </c>
       <c r="K8" t="str">
-        <v>2023</v>
+        <v>Forty-first International Conference on Machine Learning, ICML 2024, Vienna, Austria, July 21-27, 2024</v>
       </c>
       <c r="L8" t="str">
-        <v>https://doi.org/10.48550/arXiv.2312.01648;http://dx.doi.org/10.48550/ARXIV.2312.01648</v>
+        <v>2024</v>
       </c>
       <c r="M8" t="str">
-        <v>10.48550/ARXIV.2312.01648</v>
+        <v>https://openreview.net/forum?id=glfcwSsks8</v>
       </c>
       <c r="N8" t="str">
         <v/>
       </c>
       <c r="O8" t="str">
-        <v>2312.01648</v>
+        <v/>
+      </c>
+      <c r="P8" t="str">
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -778,45 +803,48 @@
         <v>Conference Paper</v>
       </c>
       <c r="B9" t="str">
-        <v>Oikawa Y,Nakayama Y,Murakami K</v>
+        <v>Liu Y,Yu J,Sun H,Shi L,Deng G,Chen Y,Liu Y</v>
       </c>
       <c r="C9" t="str">
-        <v>Li Y,Lazaridou A</v>
+        <v>Filkov V,Ray B,Zhou M</v>
       </c>
       <c r="D9" t="str">
-        <v>A Stacking-based Efficient Method for Toxic Language Detection on Live Streaming Chat</v>
+        <v>Efficient Detection of Toxic Prompts in Large Language Models</v>
       </c>
       <c r="E9" t="str">
         <v/>
       </c>
       <c r="F9" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G9" t="str">
         <v/>
       </c>
       <c r="H9" t="str">
-        <v>571-578</v>
+        <v/>
       </c>
       <c r="I9" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>455-467</v>
       </c>
       <c r="J9" t="str">
-        <v>Proceedings of the 2022 Conference on Empirical Methods in Natural Language Processing: EMNLP 2022 - Industry Track, Abu Dhabi, UAE, December 7 - 11, 2022</v>
+        <v>ACM</v>
       </c>
       <c r="K9" t="str">
-        <v>2022</v>
+        <v>Proceedings of the 39th IEEE/ACM International Conference on Automated Software Engineering, ASE 2024, Sacramento, CA, USA, October 27 - November 1, 2024</v>
       </c>
       <c r="L9" t="str">
-        <v>https://doi.org/10.18653/v1/2022.emnlp-industry.58;http://dx.doi.org/10.18653/V1/2022.EMNLP-INDUSTRY.58</v>
+        <v>2024</v>
       </c>
       <c r="M9" t="str">
-        <v>10.18653/V1/2022.EMNLP-INDUSTRY.58</v>
+        <v>https://doi.org/10.1145/3691620.3695018;http://dx.doi.org/10.1145/3691620.3695018</v>
       </c>
       <c r="N9" t="str">
-        <v/>
+        <v>10.1145/3691620.3695018</v>
       </c>
       <c r="O9" t="str">
+        <v/>
+      </c>
+      <c r="P9" t="str">
         <v/>
       </c>
     </row>
@@ -825,93 +853,99 @@
         <v>Conference Paper</v>
       </c>
       <c r="B10" t="str">
-        <v>Caron M,Bäumer FS,Müller O</v>
+        <v>da Silva Oliveira A,de Carvalho Cecote T,Alvarenga JP,de Souza Freitas VL,da Silva Luz EJ</v>
       </c>
       <c r="C10" t="str">
-        <v/>
+        <v>Gamallo P,Claro DB,Teixeira AJ,Real L,García M,Oliveira HG,Amaro R</v>
       </c>
       <c r="D10" t="str">
-        <v>Towards Automated Moderation: Enabling Toxic Language Detection with Transfer Learning and Attention-Based Models</v>
+        <v>Toxic Speech Detection in Portuguese: A Comparative Study of Large Language Models</v>
       </c>
       <c r="E10" t="str">
         <v/>
       </c>
       <c r="F10" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G10" t="str">
         <v/>
       </c>
       <c r="H10" t="str">
-        <v>1-10</v>
+        <v/>
       </c>
       <c r="I10" t="str">
-        <v>ScholarSpace</v>
+        <v>108-116</v>
       </c>
       <c r="J10" t="str">
-        <v>55th Hawaii International Conference on System Sciences, HICSS 2022, Virtual Event / Maui, Hawaii, USA, January 4-7, 2022</v>
+        <v>Association for Computational Lingustics</v>
       </c>
       <c r="K10" t="str">
-        <v>2022</v>
+        <v>Proceedings of the 16th International Conference on Computational Processing of Portuguese, PROPOR 2024, Santiago de Compostela, Galicia/Spain, 12-15 March, 2024</v>
       </c>
       <c r="L10" t="str">
-        <v>http://hdl.handle.net/10125/79428</v>
+        <v>2024</v>
       </c>
       <c r="M10" t="str">
-        <v/>
+        <v>https://aclanthology.org/2024.propor-1.11</v>
       </c>
       <c r="N10" t="str">
         <v/>
       </c>
       <c r="O10" t="str">
+        <v/>
+      </c>
+      <c r="P10" t="str">
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B11" t="str">
-        <v>Sap M,Swayamdipta S,Vianna L,Zhou X,Choi Y,Smith NA</v>
+        <v>Lu J,Xu B,Zhang X,Liu K,Zhang D,Yang L,Lin H</v>
       </c>
       <c r="C11" t="str">
-        <v>Carpuat M,de Marneffe MC,Ruíz IV</v>
+        <v/>
       </c>
       <c r="D11" t="str">
-        <v>Annotators with Attitudes: How Annotator Beliefs And Identities Bias Toxic Language Detection</v>
+        <v>Take its Essence, Discard its Dross! Debiasing for Toxic Language Detection via Counterfactual Causal Effect</v>
       </c>
       <c r="E11" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F11" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G11" t="str">
-        <v/>
+        <v>abs/2406.00983</v>
       </c>
       <c r="H11" t="str">
-        <v>5884-5906</v>
+        <v/>
       </c>
       <c r="I11" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v/>
       </c>
       <c r="J11" t="str">
-        <v>Proceedings of the 2022 Conference of the North American Chapter of the Association for Computational Linguistics: Human Language Technologies, NAACL 2022, Seattle, WA, United States, July 10-15, 2022</v>
+        <v/>
       </c>
       <c r="K11" t="str">
-        <v>2022</v>
+        <v/>
       </c>
       <c r="L11" t="str">
-        <v>https://doi.org/10.18653/v1/2022.naacl-main.431;http://dx.doi.org/10.18653/V1/2022.NAACL-MAIN.431</v>
+        <v>2024</v>
       </c>
       <c r="M11" t="str">
-        <v>10.18653/V1/2022.NAACL-MAIN.431</v>
+        <v>https://doi.org/10.48550/arXiv.2406.00983;http://dx.doi.org/10.48550/ARXIV.2406.00983</v>
       </c>
       <c r="N11" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2406.00983</v>
       </c>
       <c r="O11" t="str">
         <v/>
+      </c>
+      <c r="P11" t="str">
+        <v>2406.00983</v>
       </c>
     </row>
     <row r="12">
@@ -919,22 +953,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B12" t="str">
-        <v>Babakov N,Logacheva V,Panchenko A</v>
+        <v>Xiao Y,Hu Y,Choo KT,Lee RK</v>
       </c>
       <c r="C12" t="str">
         <v/>
       </c>
       <c r="D12" t="str">
-        <v>Beyond Plain Toxic: Detection of Inappropriate Statements on Flammable Topics for the Russian Language</v>
+        <v>ToxiCloakCN: Evaluating Robustness of Offensive Language Detection in Chinese with Cloaking Perturbations</v>
       </c>
       <c r="E12" t="str">
         <v>CoRR</v>
       </c>
       <c r="F12" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G12" t="str">
-        <v>abs/2203.02392</v>
+        <v>abs/2406.12223</v>
       </c>
       <c r="H12" t="str">
         <v/>
@@ -946,19 +980,22 @@
         <v/>
       </c>
       <c r="K12" t="str">
-        <v>2022</v>
+        <v/>
       </c>
       <c r="L12" t="str">
-        <v>https://doi.org/10.48550/arXiv.2203.02392;http://dx.doi.org/10.48550/ARXIV.2203.02392</v>
+        <v>2024</v>
       </c>
       <c r="M12" t="str">
-        <v>10.48550/ARXIV.2203.02392</v>
+        <v>https://doi.org/10.48550/arXiv.2406.12223;http://dx.doi.org/10.48550/ARXIV.2406.12223</v>
       </c>
       <c r="N12" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2406.12223</v>
       </c>
       <c r="O12" t="str">
-        <v>2203.02392</v>
+        <v/>
+      </c>
+      <c r="P12" t="str">
+        <v>2406.12223</v>
       </c>
     </row>
     <row r="13">
@@ -966,22 +1003,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B13" t="str">
-        <v>Jia Y,Wu W,Cao F,Han SC</v>
+        <v>Liu Y,Yu J,Sun H,Shi L,Deng G,Chen Y,Liu Y</v>
       </c>
       <c r="C13" t="str">
         <v/>
       </c>
       <c r="D13" t="str">
-        <v>In-game Toxic Language Detection: Shared Task and Attention Residuals</v>
+        <v>Efficient Detection of Toxic Prompts in Large Language Models</v>
       </c>
       <c r="E13" t="str">
         <v>CoRR</v>
       </c>
       <c r="F13" t="str">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="G13" t="str">
-        <v>abs/2211.05995</v>
+        <v>abs/2408.11727</v>
       </c>
       <c r="H13" t="str">
         <v/>
@@ -993,66 +1030,72 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v>2022</v>
+        <v/>
       </c>
       <c r="L13" t="str">
-        <v>https://doi.org/10.48550/arXiv.2211.05995;http://dx.doi.org/10.48550/ARXIV.2211.05995</v>
+        <v>2024</v>
       </c>
       <c r="M13" t="str">
-        <v>10.48550/ARXIV.2211.05995</v>
+        <v>https://doi.org/10.48550/arXiv.2408.11727;http://dx.doi.org/10.48550/ARXIV.2408.11727</v>
       </c>
       <c r="N13" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2408.11727</v>
       </c>
       <c r="O13" t="str">
-        <v>2211.05995</v>
+        <v/>
+      </c>
+      <c r="P13" t="str">
+        <v>2408.11727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Conference Paper</v>
+        <v>Journal Article</v>
       </c>
       <c r="B14" t="str">
-        <v>Halevy M,Harris C,Bruckman AS,Yang D,Howard AM</v>
+        <v>Faisal F,Rahman MM,Anastasopoulos A</v>
       </c>
       <c r="C14" t="str">
         <v/>
       </c>
       <c r="D14" t="str">
-        <v>Mitigating Racial Biases in Toxic Language Detection with an Equity-Based Ensemble Framework</v>
+        <v>Dialectal Toxicity Detection: Evaluating LLM-as-a-Judge Consistency Across Language Varieties</v>
       </c>
       <c r="E14" t="str">
-        <v/>
+        <v>CoRR</v>
       </c>
       <c r="F14" t="str">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="G14" t="str">
-        <v/>
+        <v>abs/2411.10954</v>
       </c>
       <c r="H14" t="str">
-        <v>7:1-7:11</v>
+        <v/>
       </c>
       <c r="I14" t="str">
-        <v>ACM</v>
+        <v/>
       </c>
       <c r="J14" t="str">
-        <v>EAAMO 2021: ACM Conference on Equity and Access in Algorithms, Mechanisms, and Optimization, Virtual Event, USA, October 5 - 9, 2021</v>
+        <v/>
       </c>
       <c r="K14" t="str">
-        <v>2021</v>
+        <v/>
       </c>
       <c r="L14" t="str">
-        <v>https://doi.org/10.1145/3465416.3483299;http://dx.doi.org/10.1145/3465416.3483299</v>
+        <v>2024</v>
       </c>
       <c r="M14" t="str">
-        <v>10.1145/3465416.3483299</v>
+        <v>https://doi.org/10.48550/arXiv.2411.10954;http://dx.doi.org/10.48550/ARXIV.2411.10954</v>
       </c>
       <c r="N14" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2411.10954</v>
       </c>
       <c r="O14" t="str">
         <v/>
+      </c>
+      <c r="P14" t="str">
+        <v>2411.10954</v>
       </c>
     </row>
     <row r="15">
@@ -1060,45 +1103,48 @@
         <v>Conference Paper</v>
       </c>
       <c r="B15" t="str">
-        <v>Zhou X,Sap M,Swayamdipta S,Choi Y,Smith NA</v>
+        <v>Jia Y,Wu W,Cao F,Han SC</v>
       </c>
       <c r="C15" t="str">
-        <v>Merlo P,Tiedemann J,Tsarfaty R</v>
+        <v>Williams B,Chen Y,Neville J</v>
       </c>
       <c r="D15" t="str">
-        <v>Challenges in Automated Debiasing for Toxic Language Detection</v>
+        <v>In-Game Toxic Language Detection: Shared Task and Attention Residuals (Student Abstract)</v>
       </c>
       <c r="E15" t="str">
         <v/>
       </c>
       <c r="F15" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G15" t="str">
         <v/>
       </c>
       <c r="H15" t="str">
-        <v>3143-3155</v>
+        <v/>
       </c>
       <c r="I15" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>16238-16239</v>
       </c>
       <c r="J15" t="str">
-        <v>Proceedings of the 16th Conference of the European Chapter of the Association for Computational Linguistics: Main Volume, EACL 2021, Online, April 19 - 23, 2021</v>
+        <v>AAAI Press</v>
       </c>
       <c r="K15" t="str">
-        <v>2021</v>
+        <v>Thirty-Seventh AAAI Conference on Artificial Intelligence, AAAI 2023, Thirty-Fifth Conference on Innovative Applications of Artificial Intelligence, IAAI 2023, Thirteenth Symposium on Educational Advances in Artificial Intelligence, EAAI 2023, Washington, DC, USA, February 7-14, 2023</v>
       </c>
       <c r="L15" t="str">
-        <v>https://doi.org/10.18653/v1/2021.eacl-main.274;http://dx.doi.org/10.18653/V1/2021.EACL-MAIN.274</v>
+        <v>2023</v>
       </c>
       <c r="M15" t="str">
-        <v>10.18653/V1/2021.EACL-MAIN.274</v>
+        <v>https://doi.org/10.1609/aaai.v37i13.26979;http://dx.doi.org/10.1609/AAAI.V37I13.26979</v>
       </c>
       <c r="N15" t="str">
-        <v/>
+        <v>10.1609/AAAI.V37I13.26979</v>
       </c>
       <c r="O15" t="str">
+        <v/>
+      </c>
+      <c r="P15" t="str">
         <v/>
       </c>
     </row>
@@ -1107,45 +1153,48 @@
         <v>Conference Paper</v>
       </c>
       <c r="B16" t="str">
-        <v>Faal F,Yu JY,Schmitt KA</v>
+        <v>Lu J,Xu B,Zhang X,Min C,Yang L,Lin H</v>
       </c>
       <c r="C16" t="str">
-        <v>Rocha AP,Steels L,van den Herik HJ</v>
+        <v>Rogers A,Boyd-Graber JL,Okazaki N</v>
       </c>
       <c r="D16" t="str">
-        <v>Domain Adaptation Multi-task Deep Neural Network for Mitigating Unintended Bias in Toxic Language Detection</v>
+        <v>Facilitating Fine-grained Detection of Chinese Toxic Language: Hierarchical Taxonomy, Resources, and Benchmarks</v>
       </c>
       <c r="E16" t="str">
         <v/>
       </c>
       <c r="F16" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G16" t="str">
         <v/>
       </c>
       <c r="H16" t="str">
-        <v>932-940</v>
+        <v/>
       </c>
       <c r="I16" t="str">
-        <v>SCITEPRESS</v>
+        <v>16235-16250</v>
       </c>
       <c r="J16" t="str">
-        <v>Proceedings of the 13th International Conference on Agents and Artificial Intelligence, ICAART 2021, Volume 2, Online Streaming, February 4-6, 2021</v>
+        <v>Association for Computational Linguistics</v>
       </c>
       <c r="K16" t="str">
-        <v>2021</v>
+        <v>Proceedings of the 61st Annual Meeting of the Association for Computational Linguistics (Volume 1: Long Papers), ACL 2023, Toronto, Canada, July 9-14, 2023</v>
       </c>
       <c r="L16" t="str">
-        <v>https://doi.org/10.5220/0010266109320940;http://dx.doi.org/10.5220/0010266109320940</v>
+        <v>2023</v>
       </c>
       <c r="M16" t="str">
-        <v>10.5220/0010266109320940</v>
+        <v>https://doi.org/10.18653/v1/2023.acl-long.898;http://dx.doi.org/10.18653/V1/2023.ACL-LONG.898</v>
       </c>
       <c r="N16" t="str">
-        <v/>
+        <v>10.18653/V1/2023.ACL-LONG.898</v>
       </c>
       <c r="O16" t="str">
+        <v/>
+      </c>
+      <c r="P16" t="str">
         <v/>
       </c>
     </row>
@@ -1154,45 +1203,48 @@
         <v>Conference Paper</v>
       </c>
       <c r="B17" t="str">
-        <v>Faal F,Schmitt KA,Yu JY</v>
+        <v>Shrestha A,Kaati L,Akrami N,Lindén K,Moshfegh A</v>
       </c>
       <c r="C17" t="str">
-        <v/>
+        <v>Prakash BA,Wang D,Weninger T</v>
       </c>
       <c r="D17" t="str">
-        <v>Protecting marginalized communities by mitigating discrimination in toxic language detection</v>
+        <v>Harmful Communication: Detection of Toxic Language and Threats on Swedish</v>
       </c>
       <c r="E17" t="str">
         <v/>
       </c>
       <c r="F17" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G17" t="str">
         <v/>
       </c>
       <c r="H17" t="str">
-        <v>1-7</v>
+        <v/>
       </c>
       <c r="I17" t="str">
-        <v>IEEE</v>
+        <v>624-630</v>
       </c>
       <c r="J17" t="str">
-        <v>IEEE International Symposium on Technology and Society, ISTAS 2021, Waterloo, ON, Canada, October 28-31, 2021</v>
+        <v>ACM</v>
       </c>
       <c r="K17" t="str">
-        <v>2021</v>
+        <v>Proceedings of the International Conference on Advances in Social Networks Analysis and Mining, ASONAM 2023, Kusadasi, Turkey, November 6-9, 2023</v>
       </c>
       <c r="L17" t="str">
-        <v>https://doi.org/10.1109/ISTAS52410.2021.9629201;http://dx.doi.org/10.1109/ISTAS52410.2021.9629201</v>
+        <v>2023</v>
       </c>
       <c r="M17" t="str">
-        <v>10.1109/ISTAS52410.2021.9629201</v>
+        <v>https://doi.org/10.1145/3625007.3627597;http://dx.doi.org/10.1145/3625007.3627597</v>
       </c>
       <c r="N17" t="str">
-        <v/>
+        <v>10.1145/3625007.3627597</v>
       </c>
       <c r="O17" t="str">
+        <v/>
+      </c>
+      <c r="P17" t="str">
         <v/>
       </c>
     </row>
@@ -1201,45 +1253,48 @@
         <v>Conference Paper</v>
       </c>
       <c r="B18" t="str">
-        <v>Kotyushev M,Glazkova A,Morozov D</v>
+        <v>M P,K R,Hegde A,Girish K,Coelho S,Shashirekha HL</v>
       </c>
       <c r="C18" t="str">
-        <v>Palmer A,Schneider N,Schluter N,Emerson G,Herbelot A,Zhu X</v>
+        <v>Ghosh K,Mandl T,Majumder P,Mitra M</v>
       </c>
       <c r="D18" t="str">
-        <v>MIPT-NSU-UTMN at SemEval-2021 Task 5: Ensembling Learning with Pre-trained Language Models for Toxic Spans Detection</v>
+        <v>Taming Toxicity: Learning Models for Hate Speech and Offensive Language Detection in Social Media Text</v>
       </c>
       <c r="E18" t="str">
         <v/>
       </c>
       <c r="F18" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G18" t="str">
-        <v/>
+        <v>3681</v>
       </c>
       <c r="H18" t="str">
-        <v>913-918</v>
+        <v/>
       </c>
       <c r="I18" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>563-573</v>
       </c>
       <c r="J18" t="str">
-        <v>Proceedings of the 15th International Workshop on Semantic Evaluation, SemEval@ACL/IJCNLP 2021, Virtual Event / Bangkok, Thailand, August 5-6, 2021</v>
+        <v>CEUR-WS.org</v>
       </c>
       <c r="K18" t="str">
-        <v>2021</v>
+        <v>Working Notes of FIRE 2023 - Forum for Information Retrieval Evaluation (FIRE-WN 2023), Goa, India, December 15-18, 2023</v>
       </c>
       <c r="L18" t="str">
-        <v>https://doi.org/10.18653/v1/2021.semeval-1.124;http://dx.doi.org/10.18653/V1/2021.SEMEVAL-1.124</v>
+        <v>2023</v>
       </c>
       <c r="M18" t="str">
-        <v>10.18653/V1/2021.SEMEVAL-1.124</v>
+        <v>https://ceur-ws.org/Vol-3681/T6-22.pdf</v>
       </c>
       <c r="N18" t="str">
         <v/>
       </c>
       <c r="O18" t="str">
+        <v>CEUR Workshop Proceedings</v>
+      </c>
+      <c r="P18" t="str">
         <v/>
       </c>
     </row>
@@ -1248,45 +1303,48 @@
         <v>Conference Paper</v>
       </c>
       <c r="B19" t="str">
-        <v>Sharma M,Kandasamy I,Vasantha WB</v>
+        <v>de Paula AF,Rosso P,Spina D</v>
       </c>
       <c r="C19" t="str">
-        <v>Palmer A,Schneider N,Schluter N,Emerson G,Herbelot A,Zhu X</v>
+        <v/>
       </c>
       <c r="D19" t="str">
-        <v>YoungSheldon at SemEval-2021 Task 5: Fine-tuning Pre-trained Language Models for Toxic Spans Detection using Token classification Objective</v>
+        <v>Mitigating Negative Transfer with Task Awareness for Sexism, Hate Speech, and Toxic Language Detection</v>
       </c>
       <c r="E19" t="str">
         <v/>
       </c>
       <c r="F19" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G19" t="str">
         <v/>
       </c>
       <c r="H19" t="str">
-        <v>953-959</v>
+        <v/>
       </c>
       <c r="I19" t="str">
-        <v>Association for Computational Linguistics</v>
+        <v>1-8</v>
       </c>
       <c r="J19" t="str">
-        <v>Proceedings of the 15th International Workshop on Semantic Evaluation, SemEval@ACL/IJCNLP 2021, Virtual Event / Bangkok, Thailand, August 5-6, 2021</v>
+        <v>IEEE</v>
       </c>
       <c r="K19" t="str">
-        <v>2021</v>
+        <v>International Joint Conference on Neural Networks, IJCNN 2023, Gold Coast, Australia, June 18-23, 2023</v>
       </c>
       <c r="L19" t="str">
-        <v>https://doi.org/10.18653/v1/2021.semeval-1.130;http://dx.doi.org/10.18653/V1/2021.SEMEVAL-1.130</v>
+        <v>2023</v>
       </c>
       <c r="M19" t="str">
-        <v>10.18653/V1/2021.SEMEVAL-1.130</v>
+        <v>https://doi.org/10.1109/IJCNN54540.2023.10191347;http://dx.doi.org/10.1109/IJCNN54540.2023.10191347</v>
       </c>
       <c r="N19" t="str">
-        <v/>
+        <v>10.1109/IJCNN54540.2023.10191347</v>
       </c>
       <c r="O19" t="str">
+        <v/>
+      </c>
+      <c r="P19" t="str">
         <v/>
       </c>
     </row>
@@ -1295,22 +1353,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B20" t="str">
-        <v>Zhou X,Sap M,Swayamdipta S,Smith NA,Choi Y</v>
+        <v>Nada AH,Latif S,Qadir J</v>
       </c>
       <c r="C20" t="str">
         <v/>
       </c>
       <c r="D20" t="str">
-        <v>Challenges in Automated Debiasing for Toxic Language Detection</v>
+        <v>Lightweight Toxicity Detection in Spoken Language: A Transformer-based Approach for Edge Devices</v>
       </c>
       <c r="E20" t="str">
         <v>CoRR</v>
       </c>
       <c r="F20" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G20" t="str">
-        <v>abs/2102.00086</v>
+        <v>abs/2304.11408</v>
       </c>
       <c r="H20" t="str">
         <v/>
@@ -1322,19 +1380,22 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v>2021</v>
+        <v/>
       </c>
       <c r="L20" t="str">
-        <v>https://arxiv.org/abs/2102.00086</v>
+        <v>2023</v>
       </c>
       <c r="M20" t="str">
-        <v/>
+        <v>https://doi.org/10.48550/arXiv.2304.11408;http://dx.doi.org/10.48550/ARXIV.2304.11408</v>
       </c>
       <c r="N20" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2304.11408</v>
       </c>
       <c r="O20" t="str">
-        <v>2102.00086</v>
+        <v/>
+      </c>
+      <c r="P20" t="str">
+        <v>2304.11408</v>
       </c>
     </row>
     <row r="21">
@@ -1342,22 +1403,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B21" t="str">
-        <v>Kotyushev M,Glazkova A,Morozov D</v>
+        <v>Lu J,Xu B,Zhang X,Min C,Yang L,Lin H</v>
       </c>
       <c r="C21" t="str">
         <v/>
       </c>
       <c r="D21" t="str">
-        <v>MIPT-NSU-UTMN at SemEval-2021 Task 5: Ensembling Learning with Pre-trained Language Models for Toxic Spans Detection</v>
+        <v>Facilitating Fine-grained Detection of Chinese Toxic Language: Hierarchical Taxonomy, Resources, and Benchmarks</v>
       </c>
       <c r="E21" t="str">
         <v>CoRR</v>
       </c>
       <c r="F21" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G21" t="str">
-        <v>abs/2104.04739</v>
+        <v>abs/2305.04446</v>
       </c>
       <c r="H21" t="str">
         <v/>
@@ -1369,19 +1430,22 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v>2021</v>
+        <v/>
       </c>
       <c r="L21" t="str">
-        <v>https://arxiv.org/abs/2104.04739</v>
+        <v>2023</v>
       </c>
       <c r="M21" t="str">
-        <v/>
+        <v>https://doi.org/10.48550/arXiv.2305.04446;http://dx.doi.org/10.48550/ARXIV.2305.04446</v>
       </c>
       <c r="N21" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2305.04446</v>
       </c>
       <c r="O21" t="str">
-        <v>2104.04739</v>
+        <v/>
+      </c>
+      <c r="P21" t="str">
+        <v>2305.04446</v>
       </c>
     </row>
     <row r="22">
@@ -1389,22 +1453,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B22" t="str">
-        <v>Excell E,Moubayed NA</v>
+        <v>de Paula AF,Rosso P,Spina D</v>
       </c>
       <c r="C22" t="str">
         <v/>
       </c>
       <c r="D22" t="str">
-        <v>Towards Equal Gender Representation in the Annotations of Toxic Language Detection</v>
+        <v>Mitigating Negative Transfer with Task Awareness for Sexism, Hate Speech, and Toxic Language Detection</v>
       </c>
       <c r="E22" t="str">
         <v>CoRR</v>
       </c>
       <c r="F22" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G22" t="str">
-        <v>abs/2106.02183</v>
+        <v>abs/2307.03377</v>
       </c>
       <c r="H22" t="str">
         <v/>
@@ -1416,19 +1480,22 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>2021</v>
+        <v/>
       </c>
       <c r="L22" t="str">
-        <v>https://arxiv.org/abs/2106.02183</v>
+        <v>2023</v>
       </c>
       <c r="M22" t="str">
-        <v/>
+        <v>https://doi.org/10.48550/arXiv.2307.03377;http://dx.doi.org/10.48550/ARXIV.2307.03377</v>
       </c>
       <c r="N22" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2307.03377</v>
       </c>
       <c r="O22" t="str">
-        <v>2106.02183</v>
+        <v/>
+      </c>
+      <c r="P22" t="str">
+        <v>2307.03377</v>
       </c>
     </row>
     <row r="23">
@@ -1436,22 +1503,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B23" t="str">
-        <v>Chuang YS,Gao M,Luo H,Glass JR,Lee HY,Chen YN,Li SW</v>
+        <v>Balestriero R,Cosentino R,Shekkizhar S</v>
       </c>
       <c r="C23" t="str">
         <v/>
       </c>
       <c r="D23" t="str">
-        <v>Mitigating Biases in Toxic Language Detection through Invariant Rationalization</v>
+        <v>Characterizing Large Language Model Geometry Solves Toxicity Detection and Generation</v>
       </c>
       <c r="E23" t="str">
         <v>CoRR</v>
       </c>
       <c r="F23" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G23" t="str">
-        <v>abs/2106.07240</v>
+        <v>abs/2312.01648</v>
       </c>
       <c r="H23" t="str">
         <v/>
@@ -1463,19 +1530,22 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <v>2021</v>
+        <v/>
       </c>
       <c r="L23" t="str">
-        <v>https://arxiv.org/abs/2106.07240</v>
+        <v>2023</v>
       </c>
       <c r="M23" t="str">
-        <v/>
+        <v>https://doi.org/10.48550/arXiv.2312.01648;http://dx.doi.org/10.48550/ARXIV.2312.01648</v>
       </c>
       <c r="N23" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2312.01648</v>
       </c>
       <c r="O23" t="str">
-        <v>2106.07240</v>
+        <v/>
+      </c>
+      <c r="P23" t="str">
+        <v>2312.01648</v>
       </c>
     </row>
     <row r="24">
@@ -1483,22 +1553,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B24" t="str">
-        <v>Halevy M,Harris C,Bruckman AS,Yang D,Howard AM</v>
+        <v>Bensalem I,Rosso P,Zitouni H</v>
       </c>
       <c r="C24" t="str">
         <v/>
       </c>
       <c r="D24" t="str">
-        <v>Mitigating Racial Biases in Toxic Language Detection with an Equity-Based Ensemble Framework</v>
+        <v>Toxic language detection: a systematic survey of Arabic datasets</v>
       </c>
       <c r="E24" t="str">
         <v>CoRR</v>
       </c>
       <c r="F24" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G24" t="str">
-        <v>abs/2109.13137</v>
+        <v>abs/2312.07228</v>
       </c>
       <c r="H24" t="str">
         <v/>
@@ -1510,19 +1580,22 @@
         <v/>
       </c>
       <c r="K24" t="str">
-        <v>2021</v>
+        <v/>
       </c>
       <c r="L24" t="str">
-        <v>https://arxiv.org/abs/2109.13137</v>
+        <v>2023</v>
       </c>
       <c r="M24" t="str">
-        <v/>
+        <v>https://doi.org/10.48550/arXiv.2312.07228;http://dx.doi.org/10.48550/ARXIV.2312.07228</v>
       </c>
       <c r="N24" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2312.07228</v>
       </c>
       <c r="O24" t="str">
-        <v>2109.13137</v>
+        <v/>
+      </c>
+      <c r="P24" t="str">
+        <v>2312.07228</v>
       </c>
     </row>
     <row r="25">
@@ -1530,22 +1603,22 @@
         <v>Journal Article</v>
       </c>
       <c r="B25" t="str">
-        <v>Sap M,Swayamdipta S,Vianna L,Zhou X,Choi Y,Smith NA</v>
+        <v>Zhang J,Wu Q,Xu Y,Cao C,Du Z,Psounis K</v>
       </c>
       <c r="C25" t="str">
         <v/>
       </c>
       <c r="D25" t="str">
-        <v>Annotators with Attitudes: How Annotator Beliefs And Identities Bias Toxic Language Detection</v>
+        <v>Efficient Toxic Content Detection by Bootstrapping and Distilling Large Language Models</v>
       </c>
       <c r="E25" t="str">
         <v>CoRR</v>
       </c>
       <c r="F25" t="str">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="G25" t="str">
-        <v>abs/2111.07997</v>
+        <v>abs/2312.08303</v>
       </c>
       <c r="H25" t="str">
         <v/>
@@ -1557,19 +1630,22 @@
         <v/>
       </c>
       <c r="K25" t="str">
-        <v>2021</v>
+        <v/>
       </c>
       <c r="L25" t="str">
-        <v>https://arxiv.org/abs/2111.07997</v>
+        <v>2023</v>
       </c>
       <c r="M25" t="str">
-        <v/>
+        <v>https://doi.org/10.48550/arXiv.2312.08303;http://dx.doi.org/10.48550/ARXIV.2312.08303</v>
       </c>
       <c r="N25" t="str">
-        <v/>
+        <v>10.48550/ARXIV.2312.08303</v>
       </c>
       <c r="O25" t="str">
-        <v>2111.07997</v>
+        <v/>
+      </c>
+      <c r="P25" t="str">
+        <v>2312.08303</v>
       </c>
     </row>
     <row r="26">
@@ -1577,45 +1653,48 @@
         <v>Conference Paper</v>
       </c>
       <c r="B26" t="str">
-        <v>Leite JA,Silva DF,Bontcheva K,Scarton C</v>
+        <v>Oikawa Y,Nakayama Y,Murakami K</v>
       </c>
       <c r="C26" t="str">
-        <v>Wong KF,Knight K,Wu H</v>
+        <v>Li Y,Lazaridou A</v>
       </c>
       <c r="D26" t="str">
-        <v>Toxic Language Detection in Social Media for Brazilian Portuguese: New Dataset and Multilingual Analysis</v>
+        <v>A Stacking-based Efficient Method for Toxic Language Detection on Live Streaming Chat</v>
       </c>
       <c r="E26" t="str">
         <v/>
       </c>
       <c r="F26" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G26" t="str">
         <v/>
       </c>
       <c r="H26" t="str">
-        <v>914-924</v>
+        <v/>
       </c>
       <c r="I26" t="str">
+        <v>571-578</v>
+      </c>
+      <c r="J26" t="str">
         <v>Association for Computational Linguistics</v>
       </c>
-      <c r="J26" t="str">
-        <v>Proceedings of the 1st Conference of the Asia-Pacific Chapter of the Association for Computational Linguistics and the 10th International Joint Conference on Natural Language Processing, AACL/IJCNLP 2020, Suzhou, China, December 4-7, 2020</v>
-      </c>
       <c r="K26" t="str">
-        <v>2020</v>
+        <v>Proceedings of the 2022 Conference on Empirical Methods in Natural Language Processing: EMNLP 2022 - Industry Track, Abu Dhabi, UAE, December 7 - 11, 2022</v>
       </c>
       <c r="L26" t="str">
-        <v>https://aclanthology.org/2020.aacl-main.91/</v>
+        <v>2022</v>
       </c>
       <c r="M26" t="str">
-        <v/>
+        <v>https://doi.org/10.18653/v1/2022.emnlp-industry.58;http://dx.doi.org/10.18653/V1/2022.EMNLP-INDUSTRY.58</v>
       </c>
       <c r="N26" t="str">
-        <v/>
+        <v>10.18653/V1/2022.EMNLP-INDUSTRY.58</v>
       </c>
       <c r="O26" t="str">
+        <v/>
+      </c>
+      <c r="P26" t="str">
         <v/>
       </c>
     </row>
@@ -1624,98 +1703,954 @@
         <v>Conference Paper</v>
       </c>
       <c r="B27" t="str">
-        <v>Makhnytkina O,Matveev A,Bogoradnikova D,Lizunova I,Maltseva A,Shilkina N</v>
+        <v>Caron M,Bäumer FS,Müller O</v>
       </c>
       <c r="C27" t="str">
-        <v>Karpov A,Potapova R</v>
+        <v/>
       </c>
       <c r="D27" t="str">
-        <v>Detection of Toxic Language in Short Text Messages</v>
+        <v>Towards Automated Moderation: Enabling Toxic Language Detection with Transfer Learning and Attention-Based Models</v>
       </c>
       <c r="E27" t="str">
         <v/>
       </c>
       <c r="F27" t="str">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="G27" t="str">
-        <v>12335</v>
+        <v/>
       </c>
       <c r="H27" t="str">
-        <v>315-325</v>
+        <v/>
       </c>
       <c r="I27" t="str">
-        <v>Springer</v>
+        <v>1-10</v>
       </c>
       <c r="J27" t="str">
-        <v>Speech and Computer - 22nd International Conference, SPECOM 2020, St. Petersburg, Russia, October 7-9, 2020, Proceedings</v>
+        <v>ScholarSpace</v>
       </c>
       <c r="K27" t="str">
-        <v>2020</v>
+        <v>55th Hawaii International Conference on System Sciences, HICSS 2022, Virtual Event / Maui, Hawaii, USA, January 4-7, 2022</v>
       </c>
       <c r="L27" t="str">
-        <v>https://doi.org/10.1007/978-3-030-60276-5_31;http://dx.doi.org/10.1007/978-3-030-60276-5_31</v>
+        <v>2022</v>
       </c>
       <c r="M27" t="str">
-        <v>10.1007/978-3-030-60276-5_31</v>
+        <v>http://hdl.handle.net/10125/79428</v>
       </c>
       <c r="N27" t="str">
-        <v>Lecture Notes in Computer Science</v>
+        <v/>
       </c>
       <c r="O27" t="str">
+        <v/>
+      </c>
+      <c r="P27" t="str">
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B28" t="str">
+        <v>Sap M,Swayamdipta S,Vianna L,Zhou X,Choi Y,Smith NA</v>
+      </c>
+      <c r="C28" t="str">
+        <v>Carpuat M,de Marneffe MC,Ruíz IV</v>
+      </c>
+      <c r="D28" t="str">
+        <v>Annotators with Attitudes: How Annotator Beliefs And Identities Bias Toxic Language Detection</v>
+      </c>
+      <c r="E28" t="str">
+        <v/>
+      </c>
+      <c r="F28" t="str">
+        <v>2022</v>
+      </c>
+      <c r="G28" t="str">
+        <v/>
+      </c>
+      <c r="H28" t="str">
+        <v/>
+      </c>
+      <c r="I28" t="str">
+        <v>5884-5906</v>
+      </c>
+      <c r="J28" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="K28" t="str">
+        <v>Proceedings of the 2022 Conference of the North American Chapter of the Association for Computational Linguistics: Human Language Technologies, NAACL 2022, Seattle, WA, United States, July 10-15, 2022</v>
+      </c>
+      <c r="L28" t="str">
+        <v>2022</v>
+      </c>
+      <c r="M28" t="str">
+        <v>https://doi.org/10.18653/v1/2022.naacl-main.431;http://dx.doi.org/10.18653/V1/2022.NAACL-MAIN.431</v>
+      </c>
+      <c r="N28" t="str">
+        <v>10.18653/V1/2022.NAACL-MAIN.431</v>
+      </c>
+      <c r="O28" t="str">
+        <v/>
+      </c>
+      <c r="P28" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
         <v>Journal Article</v>
       </c>
-      <c r="B28" t="str">
+      <c r="B29" t="str">
+        <v>Babakov N,Logacheva V,Panchenko A</v>
+      </c>
+      <c r="C29" t="str">
+        <v/>
+      </c>
+      <c r="D29" t="str">
+        <v>Beyond Plain Toxic: Detection of Inappropriate Statements on Flammable Topics for the Russian Language</v>
+      </c>
+      <c r="E29" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F29" t="str">
+        <v>2022</v>
+      </c>
+      <c r="G29" t="str">
+        <v>abs/2203.02392</v>
+      </c>
+      <c r="H29" t="str">
+        <v/>
+      </c>
+      <c r="I29" t="str">
+        <v/>
+      </c>
+      <c r="J29" t="str">
+        <v/>
+      </c>
+      <c r="K29" t="str">
+        <v/>
+      </c>
+      <c r="L29" t="str">
+        <v>2022</v>
+      </c>
+      <c r="M29" t="str">
+        <v>https://doi.org/10.48550/arXiv.2203.02392;http://dx.doi.org/10.48550/ARXIV.2203.02392</v>
+      </c>
+      <c r="N29" t="str">
+        <v>10.48550/ARXIV.2203.02392</v>
+      </c>
+      <c r="O29" t="str">
+        <v/>
+      </c>
+      <c r="P29" t="str">
+        <v>2203.02392</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B30" t="str">
+        <v>Jia Y,Wu W,Cao F,Han SC</v>
+      </c>
+      <c r="C30" t="str">
+        <v/>
+      </c>
+      <c r="D30" t="str">
+        <v>In-game Toxic Language Detection: Shared Task and Attention Residuals</v>
+      </c>
+      <c r="E30" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F30" t="str">
+        <v>2022</v>
+      </c>
+      <c r="G30" t="str">
+        <v>abs/2211.05995</v>
+      </c>
+      <c r="H30" t="str">
+        <v/>
+      </c>
+      <c r="I30" t="str">
+        <v/>
+      </c>
+      <c r="J30" t="str">
+        <v/>
+      </c>
+      <c r="K30" t="str">
+        <v/>
+      </c>
+      <c r="L30" t="str">
+        <v>2022</v>
+      </c>
+      <c r="M30" t="str">
+        <v>https://doi.org/10.48550/arXiv.2211.05995;http://dx.doi.org/10.48550/ARXIV.2211.05995</v>
+      </c>
+      <c r="N30" t="str">
+        <v>10.48550/ARXIV.2211.05995</v>
+      </c>
+      <c r="O30" t="str">
+        <v/>
+      </c>
+      <c r="P30" t="str">
+        <v>2211.05995</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B31" t="str">
+        <v>Halevy M,Harris C,Bruckman AS,Yang D,Howard AM</v>
+      </c>
+      <c r="C31" t="str">
+        <v/>
+      </c>
+      <c r="D31" t="str">
+        <v>Mitigating Racial Biases in Toxic Language Detection with an Equity-Based Ensemble Framework</v>
+      </c>
+      <c r="E31" t="str">
+        <v/>
+      </c>
+      <c r="F31" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G31" t="str">
+        <v/>
+      </c>
+      <c r="H31" t="str">
+        <v/>
+      </c>
+      <c r="I31" t="str">
+        <v>7:1-7:11</v>
+      </c>
+      <c r="J31" t="str">
+        <v>ACM</v>
+      </c>
+      <c r="K31" t="str">
+        <v>EAAMO 2021: ACM Conference on Equity and Access in Algorithms, Mechanisms, and Optimization, Virtual Event, USA, October 5 - 9, 2021</v>
+      </c>
+      <c r="L31" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M31" t="str">
+        <v>https://doi.org/10.1145/3465416.3483299;http://dx.doi.org/10.1145/3465416.3483299</v>
+      </c>
+      <c r="N31" t="str">
+        <v>10.1145/3465416.3483299</v>
+      </c>
+      <c r="O31" t="str">
+        <v/>
+      </c>
+      <c r="P31" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B32" t="str">
+        <v>Zhou X,Sap M,Swayamdipta S,Choi Y,Smith NA</v>
+      </c>
+      <c r="C32" t="str">
+        <v>Merlo P,Tiedemann J,Tsarfaty R</v>
+      </c>
+      <c r="D32" t="str">
+        <v>Challenges in Automated Debiasing for Toxic Language Detection</v>
+      </c>
+      <c r="E32" t="str">
+        <v/>
+      </c>
+      <c r="F32" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G32" t="str">
+        <v/>
+      </c>
+      <c r="H32" t="str">
+        <v/>
+      </c>
+      <c r="I32" t="str">
+        <v>3143-3155</v>
+      </c>
+      <c r="J32" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="K32" t="str">
+        <v>Proceedings of the 16th Conference of the European Chapter of the Association for Computational Linguistics: Main Volume, EACL 2021, Online, April 19 - 23, 2021</v>
+      </c>
+      <c r="L32" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M32" t="str">
+        <v>https://doi.org/10.18653/v1/2021.eacl-main.274;http://dx.doi.org/10.18653/V1/2021.EACL-MAIN.274</v>
+      </c>
+      <c r="N32" t="str">
+        <v>10.18653/V1/2021.EACL-MAIN.274</v>
+      </c>
+      <c r="O32" t="str">
+        <v/>
+      </c>
+      <c r="P32" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B33" t="str">
+        <v>Faal F,Yu JY,Schmitt KA</v>
+      </c>
+      <c r="C33" t="str">
+        <v>Rocha AP,Steels L,van den Herik HJ</v>
+      </c>
+      <c r="D33" t="str">
+        <v>Domain Adaptation Multi-task Deep Neural Network for Mitigating Unintended Bias in Toxic Language Detection</v>
+      </c>
+      <c r="E33" t="str">
+        <v/>
+      </c>
+      <c r="F33" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G33" t="str">
+        <v/>
+      </c>
+      <c r="H33" t="str">
+        <v/>
+      </c>
+      <c r="I33" t="str">
+        <v>932-940</v>
+      </c>
+      <c r="J33" t="str">
+        <v>SCITEPRESS</v>
+      </c>
+      <c r="K33" t="str">
+        <v>Proceedings of the 13th International Conference on Agents and Artificial Intelligence, ICAART 2021, Volume 2, Online Streaming, February 4-6, 2021</v>
+      </c>
+      <c r="L33" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M33" t="str">
+        <v>https://doi.org/10.5220/0010266109320940;http://dx.doi.org/10.5220/0010266109320940</v>
+      </c>
+      <c r="N33" t="str">
+        <v>10.5220/0010266109320940</v>
+      </c>
+      <c r="O33" t="str">
+        <v/>
+      </c>
+      <c r="P33" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B34" t="str">
+        <v>Faal F,Schmitt KA,Yu JY</v>
+      </c>
+      <c r="C34" t="str">
+        <v/>
+      </c>
+      <c r="D34" t="str">
+        <v>Protecting marginalized communities by mitigating discrimination in toxic language detection</v>
+      </c>
+      <c r="E34" t="str">
+        <v/>
+      </c>
+      <c r="F34" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G34" t="str">
+        <v/>
+      </c>
+      <c r="H34" t="str">
+        <v/>
+      </c>
+      <c r="I34" t="str">
+        <v>1-7</v>
+      </c>
+      <c r="J34" t="str">
+        <v>IEEE</v>
+      </c>
+      <c r="K34" t="str">
+        <v>IEEE International Symposium on Technology and Society, ISTAS 2021, Waterloo, ON, Canada, October 28-31, 2021</v>
+      </c>
+      <c r="L34" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M34" t="str">
+        <v>https://doi.org/10.1109/ISTAS52410.2021.9629201;http://dx.doi.org/10.1109/ISTAS52410.2021.9629201</v>
+      </c>
+      <c r="N34" t="str">
+        <v>10.1109/ISTAS52410.2021.9629201</v>
+      </c>
+      <c r="O34" t="str">
+        <v/>
+      </c>
+      <c r="P34" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B35" t="str">
+        <v>Kotyushev M,Glazkova A,Morozov D</v>
+      </c>
+      <c r="C35" t="str">
+        <v>Palmer A,Schneider N,Schluter N,Emerson G,Herbelot A,Zhu X</v>
+      </c>
+      <c r="D35" t="str">
+        <v>MIPT-NSU-UTMN at SemEval-2021 Task 5: Ensembling Learning with Pre-trained Language Models for Toxic Spans Detection</v>
+      </c>
+      <c r="E35" t="str">
+        <v/>
+      </c>
+      <c r="F35" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G35" t="str">
+        <v/>
+      </c>
+      <c r="H35" t="str">
+        <v/>
+      </c>
+      <c r="I35" t="str">
+        <v>913-918</v>
+      </c>
+      <c r="J35" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="K35" t="str">
+        <v>Proceedings of the 15th International Workshop on Semantic Evaluation, SemEval@ACL/IJCNLP 2021, Virtual Event / Bangkok, Thailand, August 5-6, 2021</v>
+      </c>
+      <c r="L35" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M35" t="str">
+        <v>https://doi.org/10.18653/v1/2021.semeval-1.124;http://dx.doi.org/10.18653/V1/2021.SEMEVAL-1.124</v>
+      </c>
+      <c r="N35" t="str">
+        <v>10.18653/V1/2021.SEMEVAL-1.124</v>
+      </c>
+      <c r="O35" t="str">
+        <v/>
+      </c>
+      <c r="P35" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B36" t="str">
+        <v>Sharma M,Kandasamy I,Vasantha WB</v>
+      </c>
+      <c r="C36" t="str">
+        <v>Palmer A,Schneider N,Schluter N,Emerson G,Herbelot A,Zhu X</v>
+      </c>
+      <c r="D36" t="str">
+        <v>YoungSheldon at SemEval-2021 Task 5: Fine-tuning Pre-trained Language Models for Toxic Spans Detection using Token classification Objective</v>
+      </c>
+      <c r="E36" t="str">
+        <v/>
+      </c>
+      <c r="F36" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G36" t="str">
+        <v/>
+      </c>
+      <c r="H36" t="str">
+        <v/>
+      </c>
+      <c r="I36" t="str">
+        <v>953-959</v>
+      </c>
+      <c r="J36" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="K36" t="str">
+        <v>Proceedings of the 15th International Workshop on Semantic Evaluation, SemEval@ACL/IJCNLP 2021, Virtual Event / Bangkok, Thailand, August 5-6, 2021</v>
+      </c>
+      <c r="L36" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M36" t="str">
+        <v>https://doi.org/10.18653/v1/2021.semeval-1.130;http://dx.doi.org/10.18653/V1/2021.SEMEVAL-1.130</v>
+      </c>
+      <c r="N36" t="str">
+        <v>10.18653/V1/2021.SEMEVAL-1.130</v>
+      </c>
+      <c r="O36" t="str">
+        <v/>
+      </c>
+      <c r="P36" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B37" t="str">
+        <v>Zhou X,Sap M,Swayamdipta S,Smith NA,Choi Y</v>
+      </c>
+      <c r="C37" t="str">
+        <v/>
+      </c>
+      <c r="D37" t="str">
+        <v>Challenges in Automated Debiasing for Toxic Language Detection</v>
+      </c>
+      <c r="E37" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F37" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G37" t="str">
+        <v>abs/2102.00086</v>
+      </c>
+      <c r="H37" t="str">
+        <v/>
+      </c>
+      <c r="I37" t="str">
+        <v/>
+      </c>
+      <c r="J37" t="str">
+        <v/>
+      </c>
+      <c r="K37" t="str">
+        <v/>
+      </c>
+      <c r="L37" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M37" t="str">
+        <v>https://arxiv.org/abs/2102.00086</v>
+      </c>
+      <c r="N37" t="str">
+        <v/>
+      </c>
+      <c r="O37" t="str">
+        <v/>
+      </c>
+      <c r="P37" t="str">
+        <v>2102.00086</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B38" t="str">
+        <v>Kotyushev M,Glazkova A,Morozov D</v>
+      </c>
+      <c r="C38" t="str">
+        <v/>
+      </c>
+      <c r="D38" t="str">
+        <v>MIPT-NSU-UTMN at SemEval-2021 Task 5: Ensembling Learning with Pre-trained Language Models for Toxic Spans Detection</v>
+      </c>
+      <c r="E38" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F38" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G38" t="str">
+        <v>abs/2104.04739</v>
+      </c>
+      <c r="H38" t="str">
+        <v/>
+      </c>
+      <c r="I38" t="str">
+        <v/>
+      </c>
+      <c r="J38" t="str">
+        <v/>
+      </c>
+      <c r="K38" t="str">
+        <v/>
+      </c>
+      <c r="L38" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M38" t="str">
+        <v>https://arxiv.org/abs/2104.04739</v>
+      </c>
+      <c r="N38" t="str">
+        <v/>
+      </c>
+      <c r="O38" t="str">
+        <v/>
+      </c>
+      <c r="P38" t="str">
+        <v>2104.04739</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B39" t="str">
+        <v>Excell E,Moubayed NA</v>
+      </c>
+      <c r="C39" t="str">
+        <v/>
+      </c>
+      <c r="D39" t="str">
+        <v>Towards Equal Gender Representation in the Annotations of Toxic Language Detection</v>
+      </c>
+      <c r="E39" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F39" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G39" t="str">
+        <v>abs/2106.02183</v>
+      </c>
+      <c r="H39" t="str">
+        <v/>
+      </c>
+      <c r="I39" t="str">
+        <v/>
+      </c>
+      <c r="J39" t="str">
+        <v/>
+      </c>
+      <c r="K39" t="str">
+        <v/>
+      </c>
+      <c r="L39" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M39" t="str">
+        <v>https://arxiv.org/abs/2106.02183</v>
+      </c>
+      <c r="N39" t="str">
+        <v/>
+      </c>
+      <c r="O39" t="str">
+        <v/>
+      </c>
+      <c r="P39" t="str">
+        <v>2106.02183</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B40" t="str">
+        <v>Chuang YS,Gao M,Luo H,Glass JR,Lee HY,Chen YN,Li SW</v>
+      </c>
+      <c r="C40" t="str">
+        <v/>
+      </c>
+      <c r="D40" t="str">
+        <v>Mitigating Biases in Toxic Language Detection through Invariant Rationalization</v>
+      </c>
+      <c r="E40" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F40" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G40" t="str">
+        <v>abs/2106.07240</v>
+      </c>
+      <c r="H40" t="str">
+        <v/>
+      </c>
+      <c r="I40" t="str">
+        <v/>
+      </c>
+      <c r="J40" t="str">
+        <v/>
+      </c>
+      <c r="K40" t="str">
+        <v/>
+      </c>
+      <c r="L40" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M40" t="str">
+        <v>https://arxiv.org/abs/2106.07240</v>
+      </c>
+      <c r="N40" t="str">
+        <v/>
+      </c>
+      <c r="O40" t="str">
+        <v/>
+      </c>
+      <c r="P40" t="str">
+        <v>2106.07240</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B41" t="str">
+        <v>Halevy M,Harris C,Bruckman AS,Yang D,Howard AM</v>
+      </c>
+      <c r="C41" t="str">
+        <v/>
+      </c>
+      <c r="D41" t="str">
+        <v>Mitigating Racial Biases in Toxic Language Detection with an Equity-Based Ensemble Framework</v>
+      </c>
+      <c r="E41" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F41" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G41" t="str">
+        <v>abs/2109.13137</v>
+      </c>
+      <c r="H41" t="str">
+        <v/>
+      </c>
+      <c r="I41" t="str">
+        <v/>
+      </c>
+      <c r="J41" t="str">
+        <v/>
+      </c>
+      <c r="K41" t="str">
+        <v/>
+      </c>
+      <c r="L41" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M41" t="str">
+        <v>https://arxiv.org/abs/2109.13137</v>
+      </c>
+      <c r="N41" t="str">
+        <v/>
+      </c>
+      <c r="O41" t="str">
+        <v/>
+      </c>
+      <c r="P41" t="str">
+        <v>2109.13137</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B42" t="str">
+        <v>Sap M,Swayamdipta S,Vianna L,Zhou X,Choi Y,Smith NA</v>
+      </c>
+      <c r="C42" t="str">
+        <v/>
+      </c>
+      <c r="D42" t="str">
+        <v>Annotators with Attitudes: How Annotator Beliefs And Identities Bias Toxic Language Detection</v>
+      </c>
+      <c r="E42" t="str">
+        <v>CoRR</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2021</v>
+      </c>
+      <c r="G42" t="str">
+        <v>abs/2111.07997</v>
+      </c>
+      <c r="H42" t="str">
+        <v/>
+      </c>
+      <c r="I42" t="str">
+        <v/>
+      </c>
+      <c r="J42" t="str">
+        <v/>
+      </c>
+      <c r="K42" t="str">
+        <v/>
+      </c>
+      <c r="L42" t="str">
+        <v>2021</v>
+      </c>
+      <c r="M42" t="str">
+        <v>https://arxiv.org/abs/2111.07997</v>
+      </c>
+      <c r="N42" t="str">
+        <v/>
+      </c>
+      <c r="O42" t="str">
+        <v/>
+      </c>
+      <c r="P42" t="str">
+        <v>2111.07997</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B43" t="str">
         <v>Leite JA,Silva DF,Bontcheva K,Scarton C</v>
       </c>
-      <c r="C28" t="str">
-        <v/>
-      </c>
-      <c r="D28" t="str">
+      <c r="C43" t="str">
+        <v>Wong KF,Knight K,Wu H</v>
+      </c>
+      <c r="D43" t="str">
         <v>Toxic Language Detection in Social Media for Brazilian Portuguese: New Dataset and Multilingual Analysis</v>
       </c>
-      <c r="E28" t="str">
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G43" t="str">
+        <v/>
+      </c>
+      <c r="H43" t="str">
+        <v/>
+      </c>
+      <c r="I43" t="str">
+        <v>914-924</v>
+      </c>
+      <c r="J43" t="str">
+        <v>Association for Computational Linguistics</v>
+      </c>
+      <c r="K43" t="str">
+        <v>Proceedings of the 1st Conference of the Asia-Pacific Chapter of the Association for Computational Linguistics and the 10th International Joint Conference on Natural Language Processing, AACL/IJCNLP 2020, Suzhou, China, December 4-7, 2020</v>
+      </c>
+      <c r="L43" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M43" t="str">
+        <v>https://aclanthology.org/2020.aacl-main.91/</v>
+      </c>
+      <c r="N43" t="str">
+        <v/>
+      </c>
+      <c r="O43" t="str">
+        <v/>
+      </c>
+      <c r="P43" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Conference Paper</v>
+      </c>
+      <c r="B44" t="str">
+        <v>Makhnytkina O,Matveev A,Bogoradnikova D,Lizunova I,Maltseva A,Shilkina N</v>
+      </c>
+      <c r="C44" t="str">
+        <v>Karpov A,Potapova R</v>
+      </c>
+      <c r="D44" t="str">
+        <v>Detection of Toxic Language in Short Text Messages</v>
+      </c>
+      <c r="E44" t="str">
+        <v/>
+      </c>
+      <c r="F44" t="str">
+        <v>2020</v>
+      </c>
+      <c r="G44" t="str">
+        <v>12335</v>
+      </c>
+      <c r="H44" t="str">
+        <v/>
+      </c>
+      <c r="I44" t="str">
+        <v>315-325</v>
+      </c>
+      <c r="J44" t="str">
+        <v>Springer</v>
+      </c>
+      <c r="K44" t="str">
+        <v>Speech and Computer - 22nd International Conference, SPECOM 2020, St. Petersburg, Russia, October 7-9, 2020, Proceedings</v>
+      </c>
+      <c r="L44" t="str">
+        <v>2020</v>
+      </c>
+      <c r="M44" t="str">
+        <v>https://doi.org/10.1007/978-3-030-60276-5_31;http://dx.doi.org/10.1007/978-3-030-60276-5_31</v>
+      </c>
+      <c r="N44" t="str">
+        <v>10.1007/978-3-030-60276-5_31</v>
+      </c>
+      <c r="O44" t="str">
+        <v>Lecture Notes in Computer Science</v>
+      </c>
+      <c r="P44" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Journal Article</v>
+      </c>
+      <c r="B45" t="str">
+        <v>Leite JA,Silva DF,Bontcheva K,Scarton C</v>
+      </c>
+      <c r="C45" t="str">
+        <v/>
+      </c>
+      <c r="D45" t="str">
+        <v>Toxic Language Detection in Social Media for Brazilian Portuguese: New Dataset and Multilingual Analysis</v>
+      </c>
+      <c r="E45" t="str">
         <v>CoRR</v>
       </c>
-      <c r="F28" t="str">
+      <c r="F45" t="str">
         <v>2020</v>
       </c>
-      <c r="G28" t="str">
+      <c r="G45" t="str">
         <v>abs/2010.04543</v>
       </c>
-      <c r="H28" t="str">
-        <v/>
-      </c>
-      <c r="I28" t="str">
-        <v/>
-      </c>
-      <c r="J28" t="str">
-        <v/>
-      </c>
-      <c r="K28" t="str">
+      <c r="H45" t="str">
+        <v/>
+      </c>
+      <c r="I45" t="str">
+        <v/>
+      </c>
+      <c r="J45" t="str">
+        <v/>
+      </c>
+      <c r="K45" t="str">
+        <v/>
+      </c>
+      <c r="L45" t="str">
         <v>2020</v>
       </c>
-      <c r="L28" t="str">
+      <c r="M45" t="str">
         <v>https://arxiv.org/abs/2010.04543</v>
       </c>
-      <c r="M28" t="str">
-        <v/>
-      </c>
-      <c r="N28" t="str">
-        <v/>
-      </c>
-      <c r="O28" t="str">
+      <c r="N45" t="str">
+        <v/>
+      </c>
+      <c r="O45" t="str">
+        <v/>
+      </c>
+      <c r="P45" t="str">
         <v>2010.04543</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:O28"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P45"/>
   </ignoredErrors>
 </worksheet>
 </file>